--- a/biology/Zoologie/Bull_Terrier/Bull_Terrier.xlsx
+++ b/biology/Zoologie/Bull_Terrier/Bull_Terrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bull Terrier est un chien d’origine anglaise, appartenant au 3e groupe des races de chien de la Fédération cynologique internationale, le groupe des terriers et non celui des molosses. 
@@ -514,7 +526,9 @@
           <t>Ses origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bull Terrier fut créé en Angleterre, au XVIIIe siècle, par le croisement entre le Bulldog anglais et le white english terrier, un chien de chasse de type lévrier, aujourd'hui disparu, s'apparentant au greyhound. Ce croisement aurait été effectué afin d'obtenir une race de chien s'apparentant physiquement au croisement d'un rat et d'un poney. Du sang de dalmatien et de Staffordshire Bull Terrier ont aussi été utilisés pour des « retrempes » afin d'obtenir certaines caractéristiques d'élégance et de couleurs de robes.
 Il commença sa carrière comme chien de combat. En effet, il a durant un temps combattu des animaux sauvages ou domestiques, ours, taureaux ou équidés. En 1835, à la suite du développement du nombre de ces combats, le Parlement britannique a interdit les combats entre animaux, ce qui a marqué le déclin de cette race. Cependant, des rencontres clandestines existaient toujours, n'opposant plus que des chiens entre eux, mais le bull terrier actuel n'est plus utilisé depuis longtemps pour les combats car la sélection de cette race n'est plus faite dans ce sens depuis la fin du XVIIIe siècle.
@@ -548,9 +562,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Son espérance de vie est d'environ 13 ans. Il n'y a pas de limite de poids ou de taille[1]. Le Bull Terrier est un chien musclé, puissant.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Son espérance de vie est d'environ 13 ans. Il n'y a pas de limite de poids ou de taille. Le Bull Terrier est un chien musclé, puissant.
 Corps : Bien arrondi avec des côtes bien cintrées ; du garrot à la région sternale, la hauteur de la poitrine est grande, de sorte que celle-ci est plus près du sol que le ventre.
 Dos : Court et fort. La ligne du dessus est horizontale derrière le garrot. Elle forme une courbe ou arcure légère sur le rein.
 Rein : Large et bien musclé.
@@ -583,7 +599,9 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La surdité, qui peut être bilatérale ou unilatérale, est un défaut héréditaire, c'est une tare qui se transmet génétiquement, c'est pourquoi les parents et les chiots doivent subir un test de dépistage appelé PEA (Potentiels Evoqué Auditifs)
 Les problèmes articulaires avec la dysplasie de la hanche et la luxation de la rotule (assez courante mais facilement détectable par simple palpation).
@@ -618,7 +636,9 @@
           <t>Caractère et éducation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bull Terrier actuel ne présente plus les caractéristiques pour lesquelles il a été créé au XVIIIe siècle ; plus de soixante ans de sélection rigoureuse par les éleveurs l'ont rendu bien plus apte à la vie domestique et en ont fait un admirable chien de compagnie.
 Il peut être brusque à cause de sa puissante musculature et de son physique compact.
@@ -660,7 +680,9 @@
           <t>Bull terriers célèbres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Baxter, film français de Jérôme Boivin ayant un Bull Terrier comme personnage principal.
 Grimmy, bande dessinée de l'Américain Mike Peters ayant un Bull Terrier comme personnage principal.
